--- a/src/vlinder/data/IZZ/xlsx/IZZ.xlsx
+++ b/src/vlinder/data/IZZ/xlsx/IZZ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ttami001/Documents/forked_tbrs_opensource/trbs/src/vlinder/data/izz/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rdam007/PycharmProjects/vork-trbs/trbs/src/vlinder/data/IZZ/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFCCC576-8B87-CC4E-BAD7-D7DBCAA00722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1C91D8-CD99-BD43-BD5F-2BBEF44CD4BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="-20920" windowWidth="21600" windowHeight="12640" xr2:uid="{4D223BC5-A265-7B41-9F5C-066E948A074C}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="34560" windowHeight="19940" activeTab="7" xr2:uid="{4D223BC5-A265-7B41-9F5C-066E948A074C}"/>
   </bookViews>
   <sheets>
     <sheet name="configurations" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="key_output_weights" sheetId="8" r:id="rId10"/>
     <sheet name="scenario_weights" sheetId="9" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="343">
   <si>
     <t>configuration</t>
   </si>
@@ -177,18 +177,6 @@
     <t>operator</t>
   </si>
   <si>
-    <t>maximum_effect</t>
-  </si>
-  <si>
-    <t>accessibility</t>
-  </si>
-  <si>
-    <t>probability_of_success</t>
-  </si>
-  <si>
-    <t>saturation_point</t>
-  </si>
-  <si>
     <t>weight</t>
   </si>
   <si>
@@ -370,9 +358,6 @@
   </si>
   <si>
     <t>+</t>
-  </si>
-  <si>
-    <t>squeezed *</t>
   </si>
   <si>
     <t>-</t>
@@ -585,13 +570,520 @@
   </si>
   <si>
     <t>EN</t>
+  </si>
+  <si>
+    <t>argument</t>
+  </si>
+  <si>
+    <t>equation</t>
+  </si>
+  <si>
+    <t>_sp</t>
+  </si>
+  <si>
+    <t>_acc</t>
+  </si>
+  <si>
+    <t>_me</t>
+  </si>
+  <si>
+    <t>_pssr</t>
+  </si>
+  <si>
+    <t>_psr</t>
+  </si>
+  <si>
+    <t>_pe</t>
+  </si>
+  <si>
+    <t>_sr</t>
+  </si>
+  <si>
+    <t>_he</t>
+  </si>
+  <si>
+    <t>_wlb</t>
+  </si>
+  <si>
+    <t>_pos</t>
+  </si>
+  <si>
+    <t>RD_ABS_pssr_me</t>
+  </si>
+  <si>
+    <t>RD_ABS_pssr_acc</t>
+  </si>
+  <si>
+    <t>RD_ABS_pssr_pos</t>
+  </si>
+  <si>
+    <t>RD_ABS_pssr_sp</t>
+  </si>
+  <si>
+    <t>RD_ABS_psr_me</t>
+  </si>
+  <si>
+    <t>RD_ABS_psr_acc</t>
+  </si>
+  <si>
+    <t>RD_ABS_psr_pos</t>
+  </si>
+  <si>
+    <t>RD_ABS_psr_sp</t>
+  </si>
+  <si>
+    <t>RD_ABS_pe_me</t>
+  </si>
+  <si>
+    <t>RD_ABS_pe_acc</t>
+  </si>
+  <si>
+    <t>RD_ABS_pe_pos</t>
+  </si>
+  <si>
+    <t>RD_ABS_pe_sp</t>
+  </si>
+  <si>
+    <t>RD_ABS_sr_me</t>
+  </si>
+  <si>
+    <t>RD_ABS_sr_acc</t>
+  </si>
+  <si>
+    <t>RD_ABS_sr_pos</t>
+  </si>
+  <si>
+    <t>RD_ABS_sr_sp</t>
+  </si>
+  <si>
+    <t>RD_ABS_he_me</t>
+  </si>
+  <si>
+    <t>RD_ABS_he_acc</t>
+  </si>
+  <si>
+    <t>RD_ABS_he_pos</t>
+  </si>
+  <si>
+    <t>RD_ABS_he_sp</t>
+  </si>
+  <si>
+    <t>RD_ABS_wlb_me</t>
+  </si>
+  <si>
+    <t>RD_ABS_wlb_acc</t>
+  </si>
+  <si>
+    <t>RD_ABS_wlb_pos</t>
+  </si>
+  <si>
+    <t>RD_ABS_wlb_sp</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>RD_ABS_pssr_1</t>
+  </si>
+  <si>
+    <t>RD_ABS_pssr_2</t>
+  </si>
+  <si>
+    <t>RD_ABS_pssr_3</t>
+  </si>
+  <si>
+    <t>RD_ABS_pssr_4</t>
+  </si>
+  <si>
+    <t>RD_ABS_psr_1</t>
+  </si>
+  <si>
+    <t>RD_ABS_psr_2</t>
+  </si>
+  <si>
+    <t>RD_ABS_psr_3</t>
+  </si>
+  <si>
+    <t>RD_ABS_psr_4</t>
+  </si>
+  <si>
+    <t>RD_ABS_pe_1</t>
+  </si>
+  <si>
+    <t>RD_ABS_pe_2</t>
+  </si>
+  <si>
+    <t>RD_ABS_pe_3</t>
+  </si>
+  <si>
+    <t>RD_ABS_pe_4</t>
+  </si>
+  <si>
+    <t>RD_ABS_sr_1</t>
+  </si>
+  <si>
+    <t>RD_ABS_sr_2</t>
+  </si>
+  <si>
+    <t>RD_ABS_sr_3</t>
+  </si>
+  <si>
+    <t>RD_ABS_sr_4</t>
+  </si>
+  <si>
+    <t>RD_ABS_he_1</t>
+  </si>
+  <si>
+    <t>RD_ABS_he_2</t>
+  </si>
+  <si>
+    <t>RD_ABS_he_3</t>
+  </si>
+  <si>
+    <t>RD_ABS_he_4</t>
+  </si>
+  <si>
+    <t>RD_ABS_wlb_1</t>
+  </si>
+  <si>
+    <t>RD_ABS_wlb_2</t>
+  </si>
+  <si>
+    <t>RD_ABS_wlb_3</t>
+  </si>
+  <si>
+    <t>RD_ABS_wlb_4</t>
+  </si>
+  <si>
+    <t>_td</t>
+  </si>
+  <si>
+    <t>_esi</t>
+  </si>
+  <si>
+    <t>_ld</t>
+  </si>
+  <si>
+    <t>RD_ST_psr_me</t>
+  </si>
+  <si>
+    <t>RD_ST_psr_acc</t>
+  </si>
+  <si>
+    <t>RD_ST_psr_pos</t>
+  </si>
+  <si>
+    <t>RD_ST_psr_sp</t>
+  </si>
+  <si>
+    <t>RD_ST_wlb_me</t>
+  </si>
+  <si>
+    <t>RD_ST_wlb_acc</t>
+  </si>
+  <si>
+    <t>RD_ST_wlb_pos</t>
+  </si>
+  <si>
+    <t>RD_ST_wlb_sp</t>
+  </si>
+  <si>
+    <t>RD_ST_td_me</t>
+  </si>
+  <si>
+    <t>RD_ST_td_acc</t>
+  </si>
+  <si>
+    <t>RD_ST_td_pos</t>
+  </si>
+  <si>
+    <t>RD_ST_td_sp</t>
+  </si>
+  <si>
+    <t>RD_ST_esi_me</t>
+  </si>
+  <si>
+    <t>RD_ST_esi_acc</t>
+  </si>
+  <si>
+    <t>RD_ST_esi_pos</t>
+  </si>
+  <si>
+    <t>RD_ST_esi_sp</t>
+  </si>
+  <si>
+    <t>RD_ST_ld_me</t>
+  </si>
+  <si>
+    <t>RD_ST_ld_acc</t>
+  </si>
+  <si>
+    <t>RD_ST_ld_pos</t>
+  </si>
+  <si>
+    <t>RD_ST_ld_sp</t>
+  </si>
+  <si>
+    <t>RD_ST_wlb_1</t>
+  </si>
+  <si>
+    <t>RD_ST_wlb_2</t>
+  </si>
+  <si>
+    <t>RD_ST_wlb_3</t>
+  </si>
+  <si>
+    <t>RD_ST_wlb_4</t>
+  </si>
+  <si>
+    <t>RD_ST_psr_1</t>
+  </si>
+  <si>
+    <t>RD_ST_psr_2</t>
+  </si>
+  <si>
+    <t>RD_ST_psr_3</t>
+  </si>
+  <si>
+    <t>RD_ST_psr_4</t>
+  </si>
+  <si>
+    <t>RD_ST_td_1</t>
+  </si>
+  <si>
+    <t>RD_ST_td_2</t>
+  </si>
+  <si>
+    <t>RD_ST_td_3</t>
+  </si>
+  <si>
+    <t>RD_ST_td_4</t>
+  </si>
+  <si>
+    <t>RD_ST_esi_1</t>
+  </si>
+  <si>
+    <t>RD_ST_esi_2</t>
+  </si>
+  <si>
+    <t>RD_ST_esi_3</t>
+  </si>
+  <si>
+    <t>RD_ST_esi_4</t>
+  </si>
+  <si>
+    <t>RD_ST_ld_1</t>
+  </si>
+  <si>
+    <t>RD_ST_ld_2</t>
+  </si>
+  <si>
+    <t>RD_ST_ld_3</t>
+  </si>
+  <si>
+    <t>RD_ST_ld_4</t>
+  </si>
+  <si>
+    <t>RI_ES_psr_me</t>
+  </si>
+  <si>
+    <t>RI_ES_psr_acc</t>
+  </si>
+  <si>
+    <t>RI_ES_psr_pos</t>
+  </si>
+  <si>
+    <t>RI_ES_psr_sp</t>
+  </si>
+  <si>
+    <t>RI_ES_wlb_me</t>
+  </si>
+  <si>
+    <t>RI_ES_wlb_acc</t>
+  </si>
+  <si>
+    <t>RI_ES_wlb_pos</t>
+  </si>
+  <si>
+    <t>RI_ES_wlb_sp</t>
+  </si>
+  <si>
+    <t>RI_ES_td_me</t>
+  </si>
+  <si>
+    <t>RI_ES_td_acc</t>
+  </si>
+  <si>
+    <t>RI_ES_td_pos</t>
+  </si>
+  <si>
+    <t>RI_ES_td_sp</t>
+  </si>
+  <si>
+    <t>RI_ES_esi_me</t>
+  </si>
+  <si>
+    <t>RI_ES_esi_acc</t>
+  </si>
+  <si>
+    <t>RI_ES_esi_pos</t>
+  </si>
+  <si>
+    <t>RI_ES_esi_sp</t>
+  </si>
+  <si>
+    <t>RI_ES_ld_me</t>
+  </si>
+  <si>
+    <t>RI_ES_ld_acc</t>
+  </si>
+  <si>
+    <t>RI_ES_ld_pos</t>
+  </si>
+  <si>
+    <t>RI_ES_ld_sp</t>
+  </si>
+  <si>
+    <t>RI_ES_psr_1</t>
+  </si>
+  <si>
+    <t>RI_ES_psr_2</t>
+  </si>
+  <si>
+    <t>RI_ES_psr_3</t>
+  </si>
+  <si>
+    <t>RI_ES_psr_4</t>
+  </si>
+  <si>
+    <t>RI_ES_td_1</t>
+  </si>
+  <si>
+    <t>RI_ES_td_2</t>
+  </si>
+  <si>
+    <t>RI_ES_td_3</t>
+  </si>
+  <si>
+    <t>RI_ES_td_4</t>
+  </si>
+  <si>
+    <t>RI_ES_esi_1</t>
+  </si>
+  <si>
+    <t>RI_ES_esi_2</t>
+  </si>
+  <si>
+    <t>RI_ES_esi_3</t>
+  </si>
+  <si>
+    <t>RI_ES_esi_4</t>
+  </si>
+  <si>
+    <t>RI_ES_wlb_1</t>
+  </si>
+  <si>
+    <t>RI_ES_wlb_2</t>
+  </si>
+  <si>
+    <t>RI_ES_wlb_3</t>
+  </si>
+  <si>
+    <t>RI_ES_wlb_4</t>
+  </si>
+  <si>
+    <t>RI_ES_ld_1</t>
+  </si>
+  <si>
+    <t>RI_ES_ld_2</t>
+  </si>
+  <si>
+    <t>RI_ES_ld_3</t>
+  </si>
+  <si>
+    <t>RI_ES_ld_4</t>
+  </si>
+  <si>
+    <t>DI_P</t>
+  </si>
+  <si>
+    <t>DI_P_pssr_me</t>
+  </si>
+  <si>
+    <t>DI_P_pssr_acc</t>
+  </si>
+  <si>
+    <t>DI_P_pssr_pos</t>
+  </si>
+  <si>
+    <t>DI_P_pssr_sp</t>
+  </si>
+  <si>
+    <t>DI_P_pe_me</t>
+  </si>
+  <si>
+    <t>DI_P_pe_acc</t>
+  </si>
+  <si>
+    <t>DI_P_pe_pos</t>
+  </si>
+  <si>
+    <t>DI_P_pe_sp</t>
+  </si>
+  <si>
+    <t>DI_P_sr_me</t>
+  </si>
+  <si>
+    <t>DI_P_sr_acc</t>
+  </si>
+  <si>
+    <t>DI_P_sr_pos</t>
+  </si>
+  <si>
+    <t>DI_P_sr_sp</t>
+  </si>
+  <si>
+    <t>DI_P_pssr_1</t>
+  </si>
+  <si>
+    <t>DI_P_pssr_2</t>
+  </si>
+  <si>
+    <t>DI_P_pssr_3</t>
+  </si>
+  <si>
+    <t>DI_P_pssr_4</t>
+  </si>
+  <si>
+    <t>DI_P_pe_1</t>
+  </si>
+  <si>
+    <t>DI_P_pe_2</t>
+  </si>
+  <si>
+    <t>DI_P_pe_3</t>
+  </si>
+  <si>
+    <t>DI_P_pe_4</t>
+  </si>
+  <si>
+    <t>DI_P_sr_1</t>
+  </si>
+  <si>
+    <t>DI_P_sr_2</t>
+  </si>
+  <si>
+    <t>DI_P_sr_3</t>
+  </si>
+  <si>
+    <t>DI_P_sr_4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -670,8 +1162,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -694,8 +1192,14 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -718,6 +1222,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -727,12 +1240,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
@@ -748,6 +1260,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -1069,7 +1586,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{323C0127-B98F-8F4A-8B9E-DB2076867E31}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
@@ -1084,11 +1601,11 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>178</v>
+      <c r="A2" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -1114,14 +1631,14 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1129,7 +1646,7 @@
       <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1137,7 +1654,7 @@
       <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1145,7 +1662,7 @@
       <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1153,7 +1670,7 @@
       <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1161,7 +1678,7 @@
       <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1169,7 +1686,7 @@
       <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1177,7 +1694,7 @@
       <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1185,7 +1702,7 @@
       <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1209,12 +1726,12 @@
         <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1222,7 +1739,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1230,7 +1747,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1251,253 +1768,253 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="163.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="8"/>
+    <col min="1" max="1" width="21.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="163.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="9" t="s">
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B5" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="10" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="B3" s="9" t="s">
+      <c r="B8" s="10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="8" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="9" t="s">
+      <c r="B11" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B12" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="8" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="9" t="s">
+      <c r="B13" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="11" t="s">
+      <c r="B14" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="B10" s="11" t="s">
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="8" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="B11" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="B12" s="9" t="s">
+    <row r="16" spans="1:2">
+      <c r="A16" s="8" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="B13" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="B14" s="9" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" s="10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="9" t="s">
+      <c r="B17" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="B15" s="9" t="s">
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="8" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B16" s="9" t="s">
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="8" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="11" t="s">
+      <c r="B19" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="B17" s="11" t="s">
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="8" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="B18" s="9" t="s">
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="8" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="9" t="s">
+      <c r="B21" s="8"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B22" s="8"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="8" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="B20" s="9" t="s">
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="8" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="B21" s="9"/>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="9" t="s">
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="B22" s="9"/>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="9" t="s">
+      <c r="B25" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="B23" s="9" t="s">
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="8" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="9" t="s">
+      <c r="B26" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="B24" s="9" t="s">
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="8" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="9" t="s">
+      <c r="B27" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="B25" s="9" t="s">
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="8" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="9" t="s">
+      <c r="B28" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="B26" s="9" t="s">
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="8" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="9" t="s">
+      <c r="B29" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="B27" s="9" t="s">
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="8" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="9" t="s">
+      <c r="B30" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="B28" s="9" t="s">
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="8" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>166</v>
+      <c r="B31" s="8" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -1515,29 +2032,29 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.1640625" style="8" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="8"/>
+    <col min="1" max="1" width="18.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.1640625" style="7" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="409.6">
-      <c r="A2" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>176</v>
+      <c r="A2" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="B3" s="9"/>
+      <c r="B3" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1777,7 +2294,7 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -2125,10 +2642,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2136,10 +2653,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C3">
         <v>1.3</v>
@@ -2147,10 +2664,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C4">
         <v>0.7</v>
@@ -2158,10 +2675,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2169,10 +2686,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C6">
         <v>1.3</v>
@@ -2180,10 +2697,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C7">
         <v>0.5</v>
@@ -2191,10 +2708,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -2202,10 +2719,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" t="s">
         <v>50</v>
-      </c>
-      <c r="B9" t="s">
-        <v>54</v>
       </c>
       <c r="C9">
         <v>1.1000000000000001</v>
@@ -2213,10 +2730,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C10">
         <v>0.9</v>
@@ -2224,10 +2741,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -2235,10 +2752,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C12">
         <v>1.1000000000000001</v>
@@ -2246,10 +2763,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
         <v>51</v>
-      </c>
-      <c r="B13" t="s">
-        <v>55</v>
       </c>
       <c r="C13">
         <v>0.5</v>
@@ -2257,10 +2774,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2268,10 +2785,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C15">
         <v>1.1000000000000001</v>
@@ -2279,10 +2796,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C16">
         <v>0.9</v>
@@ -2290,10 +2807,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -2301,10 +2818,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C18">
         <v>1.1000000000000001</v>
@@ -2312,10 +2829,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C19">
         <v>0.9</v>
@@ -2328,10 +2845,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED761DDB-51CF-394F-9D46-C056F7FA6C46}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -2349,7 +2866,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B2">
         <v>500</v>
@@ -2357,7 +2874,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B3">
         <v>3000</v>
@@ -2365,90 +2882,698 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="4">
+        <v>54</v>
+      </c>
+      <c r="B4" s="3">
         <v>40000</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="4">
+      <c r="A5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="3">
         <v>6.4000000000000005E-4</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="4">
+        <v>56</v>
+      </c>
+      <c r="B6" s="3">
         <v>6.5</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="4">
+        <v>57</v>
+      </c>
+      <c r="B7" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" s="4">
+        <v>58</v>
+      </c>
+      <c r="B8" s="3">
         <v>1200</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="4">
+        <v>59</v>
+      </c>
+      <c r="B9" s="3">
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" s="4">
+        <v>60</v>
+      </c>
+      <c r="B10" s="3">
         <v>8.5999999999999998E-4</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" s="4">
+        <v>61</v>
+      </c>
+      <c r="B11" s="3">
         <v>0.26</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" s="4">
+        <v>62</v>
+      </c>
+      <c r="B12" s="3">
         <v>0.23</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>112</v>
-      </c>
-      <c r="B13" s="4">
+        <v>107</v>
+      </c>
+      <c r="B13" s="3">
         <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" s="4">
+        <v>63</v>
+      </c>
+      <c r="B14" s="3">
         <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>186</v>
+      </c>
+      <c r="B15">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>187</v>
+      </c>
+      <c r="B16">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>188</v>
+      </c>
+      <c r="B17">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>189</v>
+      </c>
+      <c r="B18">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>190</v>
+      </c>
+      <c r="B19">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>191</v>
+      </c>
+      <c r="B20">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>192</v>
+      </c>
+      <c r="B21">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>193</v>
+      </c>
+      <c r="B22">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>194</v>
+      </c>
+      <c r="B23">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>195</v>
+      </c>
+      <c r="B24">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>196</v>
+      </c>
+      <c r="B25">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>197</v>
+      </c>
+      <c r="B26">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>198</v>
+      </c>
+      <c r="B27">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>199</v>
+      </c>
+      <c r="B28">
+        <v>0.23200000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>200</v>
+      </c>
+      <c r="B29">
+        <v>0.13700000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>201</v>
+      </c>
+      <c r="B30">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>202</v>
+      </c>
+      <c r="B31">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>203</v>
+      </c>
+      <c r="B32">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>204</v>
+      </c>
+      <c r="B33">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>205</v>
+      </c>
+      <c r="B34">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>206</v>
+      </c>
+      <c r="B35">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>207</v>
+      </c>
+      <c r="B36">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>208</v>
+      </c>
+      <c r="B37">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>209</v>
+      </c>
+      <c r="B38">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>238</v>
+      </c>
+      <c r="B39">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>239</v>
+      </c>
+      <c r="B40">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>240</v>
+      </c>
+      <c r="B41">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>241</v>
+      </c>
+      <c r="B42">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>242</v>
+      </c>
+      <c r="B43">
+        <v>0.95799999999999996</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>243</v>
+      </c>
+      <c r="B44">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>244</v>
+      </c>
+      <c r="B45">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>245</v>
+      </c>
+      <c r="B46">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>246</v>
+      </c>
+      <c r="B47">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>247</v>
+      </c>
+      <c r="B48">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>248</v>
+      </c>
+      <c r="B49">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>249</v>
+      </c>
+      <c r="B50">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>250</v>
+      </c>
+      <c r="B51">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>251</v>
+      </c>
+      <c r="B52">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>252</v>
+      </c>
+      <c r="B53">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>253</v>
+      </c>
+      <c r="B54">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>254</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>255</v>
+      </c>
+      <c r="B56">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>256</v>
+      </c>
+      <c r="B57">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>257</v>
+      </c>
+      <c r="B58">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>278</v>
+      </c>
+      <c r="B59">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>279</v>
+      </c>
+      <c r="B60">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>280</v>
+      </c>
+      <c r="B61">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>281</v>
+      </c>
+      <c r="B62">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>282</v>
+      </c>
+      <c r="B63">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>283</v>
+      </c>
+      <c r="B64" s="15">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>284</v>
+      </c>
+      <c r="B65" s="15">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>285</v>
+      </c>
+      <c r="B66" s="15">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>286</v>
+      </c>
+      <c r="B67">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>287</v>
+      </c>
+      <c r="B68">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>288</v>
+      </c>
+      <c r="B69">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>289</v>
+      </c>
+      <c r="B70">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>290</v>
+      </c>
+      <c r="B71">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>291</v>
+      </c>
+      <c r="B72">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>292</v>
+      </c>
+      <c r="B73">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>293</v>
+      </c>
+      <c r="B74">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>294</v>
+      </c>
+      <c r="B75">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>295</v>
+      </c>
+      <c r="B76">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>296</v>
+      </c>
+      <c r="B77">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>297</v>
+      </c>
+      <c r="B78">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>319</v>
+      </c>
+      <c r="B79">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>320</v>
+      </c>
+      <c r="B80">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>321</v>
+      </c>
+      <c r="B81">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>322</v>
+      </c>
+      <c r="B82">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>323</v>
+      </c>
+      <c r="B83">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>324</v>
+      </c>
+      <c r="B84">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>325</v>
+      </c>
+      <c r="B85">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>326</v>
+      </c>
+      <c r="B86">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>327</v>
+      </c>
+      <c r="B87">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>328</v>
+      </c>
+      <c r="B88">
+        <v>0.23200000000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>329</v>
+      </c>
+      <c r="B89">
+        <v>0.13700000000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>330</v>
+      </c>
+      <c r="B90">
+        <v>390</v>
       </c>
     </row>
   </sheetData>
@@ -2459,24 +3584,25 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45498073-CC56-2D41-B5D6-3D03F1233978}">
-  <dimension ref="A1:H76"/>
+  <dimension ref="A1:N149"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="45.1640625" customWidth="1"/>
+    <col min="1" max="1" width="71.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="51.1640625" customWidth="1"/>
     <col min="3" max="3" width="74" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.33203125" customWidth="1"/>
     <col min="5" max="5" width="16.5" customWidth="1"/>
     <col min="7" max="7" width="21.83203125" customWidth="1"/>
     <col min="8" max="8" width="19.6640625" customWidth="1"/>
+    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
@@ -2489,1233 +3615,2570 @@
       <c r="D1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J2" t="s">
+        <v>318</v>
+      </c>
+      <c r="K2" t="s">
+        <v>179</v>
+      </c>
+      <c r="L2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M2" t="str">
+        <f>_xlfn.CONCAT(J2,K2,L2)</f>
+        <v>DI_P_pssr_me</v>
+      </c>
+      <c r="N2" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J3" t="s">
+        <v>318</v>
+      </c>
+      <c r="K3" t="s">
+        <v>179</v>
+      </c>
+      <c r="L3" t="s">
+        <v>177</v>
+      </c>
+      <c r="M3" t="str">
+        <f t="shared" ref="M3:M19" si="0">_xlfn.CONCAT(J3,K3,L3)</f>
+        <v>DI_P_pssr_acc</v>
+      </c>
+      <c r="N3" s="14">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J4" t="s">
+        <v>318</v>
+      </c>
+      <c r="K4" t="s">
+        <v>179</v>
+      </c>
+      <c r="L4" t="s">
+        <v>185</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" si="0"/>
+        <v>DI_P_pssr_pos</v>
+      </c>
+      <c r="N4" s="14">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" t="s">
+        <v>100</v>
+      </c>
+      <c r="J5" t="s">
+        <v>318</v>
+      </c>
+      <c r="K5" t="s">
+        <v>179</v>
+      </c>
+      <c r="L5" t="s">
+        <v>176</v>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" si="0"/>
+        <v>DI_P_pssr_sp</v>
+      </c>
+      <c r="N5" s="14">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" t="s">
+        <v>100</v>
+      </c>
+      <c r="J6" t="s">
+        <v>318</v>
+      </c>
+      <c r="K6" t="s">
+        <v>180</v>
+      </c>
+      <c r="L6" t="s">
+        <v>178</v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" si="0"/>
+        <v>DI_P_psr_me</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" t="s">
+        <v>100</v>
+      </c>
+      <c r="J7" t="s">
+        <v>318</v>
+      </c>
+      <c r="K7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L7" t="s">
+        <v>177</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="0"/>
+        <v>DI_P_psr_acc</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" t="s">
+        <v>100</v>
+      </c>
+      <c r="J8" t="s">
+        <v>318</v>
+      </c>
+      <c r="K8" t="s">
+        <v>180</v>
+      </c>
+      <c r="L8" t="s">
+        <v>185</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="0"/>
+        <v>DI_P_psr_pos</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" t="s">
+        <v>100</v>
+      </c>
+      <c r="J9" t="s">
+        <v>318</v>
+      </c>
+      <c r="K9" t="s">
+        <v>180</v>
+      </c>
+      <c r="L9" t="s">
+        <v>176</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="0"/>
+        <v>DI_P_psr_sp</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" t="s">
+        <v>318</v>
+      </c>
+      <c r="K10" t="s">
+        <v>181</v>
+      </c>
+      <c r="L10" t="s">
+        <v>178</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="0"/>
+        <v>DI_P_pe_me</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>103</v>
+      </c>
+      <c r="J11" t="s">
+        <v>318</v>
+      </c>
+      <c r="K11" t="s">
+        <v>181</v>
+      </c>
+      <c r="L11" t="s">
+        <v>177</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="0"/>
+        <v>DI_P_pe_acc</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>103</v>
+      </c>
+      <c r="J12" t="s">
+        <v>318</v>
+      </c>
+      <c r="K12" t="s">
+        <v>181</v>
+      </c>
+      <c r="L12" t="s">
+        <v>185</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="0"/>
+        <v>DI_P_pe_pos</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>103</v>
+      </c>
+      <c r="J13" t="s">
+        <v>318</v>
+      </c>
+      <c r="K13" t="s">
+        <v>181</v>
+      </c>
+      <c r="L13" t="s">
+        <v>176</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="0"/>
+        <v>DI_P_pe_sp</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>103</v>
+      </c>
+      <c r="J14" t="s">
+        <v>318</v>
+      </c>
+      <c r="K14" t="s">
+        <v>182</v>
+      </c>
+      <c r="L14" t="s">
+        <v>178</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="0"/>
+        <v>DI_P_sr_me</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" t="s">
+        <v>102</v>
+      </c>
+      <c r="J15" t="s">
+        <v>318</v>
+      </c>
+      <c r="K15" t="s">
+        <v>182</v>
+      </c>
+      <c r="L15" t="s">
+        <v>177</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="0"/>
+        <v>DI_P_sr_acc</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" t="s">
+        <v>106</v>
+      </c>
+      <c r="J16" t="s">
+        <v>318</v>
+      </c>
+      <c r="K16" t="s">
+        <v>182</v>
+      </c>
+      <c r="L16" t="s">
+        <v>185</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="0"/>
+        <v>DI_P_sr_pos</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" t="s">
+        <v>100</v>
+      </c>
+      <c r="J17" t="s">
+        <v>318</v>
+      </c>
+      <c r="K17" t="s">
+        <v>182</v>
+      </c>
+      <c r="L17" t="s">
+        <v>176</v>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" si="0"/>
+        <v>DI_P_sr_sp</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" t="s">
+        <v>211</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D18" t="s">
+        <v>102</v>
+      </c>
+      <c r="J18" t="s">
+        <v>318</v>
+      </c>
+      <c r="K18" t="s">
+        <v>183</v>
+      </c>
+      <c r="L18" t="s">
+        <v>178</v>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" si="0"/>
+        <v>DI_P_he_me</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" t="s">
+        <v>212</v>
+      </c>
+      <c r="B19" t="s">
+        <v>211</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>210</v>
+      </c>
+      <c r="J19" t="s">
+        <v>318</v>
+      </c>
+      <c r="K19" t="s">
+        <v>183</v>
+      </c>
+      <c r="L19" t="s">
+        <v>177</v>
+      </c>
+      <c r="M19" t="str">
+        <f t="shared" si="0"/>
+        <v>DI_P_he_acc</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" t="s">
+        <v>213</v>
+      </c>
+      <c r="B20" t="s">
+        <v>212</v>
+      </c>
+      <c r="C20" t="s">
+        <v>187</v>
+      </c>
+      <c r="D20" t="s">
+        <v>100</v>
+      </c>
+      <c r="J20" t="s">
+        <v>318</v>
+      </c>
+      <c r="K20" t="s">
+        <v>183</v>
+      </c>
+      <c r="L20" t="s">
+        <v>185</v>
+      </c>
+      <c r="M20" t="str">
+        <f t="shared" ref="M20:M25" si="1">_xlfn.CONCAT(J20,K20,L20)</f>
+        <v>DI_P_he_pos</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" t="s">
+        <v>214</v>
+      </c>
+      <c r="B21" t="s">
+        <v>213</v>
+      </c>
+      <c r="C21" t="s">
+        <v>188</v>
+      </c>
+      <c r="D21" t="s">
+        <v>100</v>
+      </c>
+      <c r="J21" t="s">
+        <v>318</v>
+      </c>
+      <c r="K21" t="s">
+        <v>183</v>
+      </c>
+      <c r="L21" t="s">
+        <v>176</v>
+      </c>
+      <c r="M21" t="str">
+        <f t="shared" si="1"/>
+        <v>DI_P_he_sp</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" t="s">
+        <v>214</v>
+      </c>
+      <c r="C22" t="s">
+        <v>186</v>
+      </c>
+      <c r="D22" t="s">
+        <v>100</v>
+      </c>
+      <c r="J22" t="s">
+        <v>318</v>
+      </c>
+      <c r="K22" t="s">
+        <v>184</v>
+      </c>
+      <c r="L22" t="s">
+        <v>178</v>
+      </c>
+      <c r="M22" t="str">
+        <f t="shared" si="1"/>
+        <v>DI_P_wlb_me</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" t="s">
+        <v>215</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
+        <v>193</v>
+      </c>
+      <c r="D23" t="s">
+        <v>102</v>
+      </c>
+      <c r="J23" t="s">
+        <v>318</v>
+      </c>
+      <c r="K23" t="s">
+        <v>184</v>
+      </c>
+      <c r="L23" t="s">
+        <v>177</v>
+      </c>
+      <c r="M23" t="str">
+        <f t="shared" si="1"/>
+        <v>DI_P_wlb_acc</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" t="s">
+        <v>216</v>
+      </c>
+      <c r="B24" t="s">
+        <v>215</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>210</v>
+      </c>
+      <c r="J24" t="s">
+        <v>318</v>
+      </c>
+      <c r="K24" t="s">
+        <v>184</v>
+      </c>
+      <c r="L24" t="s">
+        <v>185</v>
+      </c>
+      <c r="M24" t="str">
+        <f t="shared" si="1"/>
+        <v>DI_P_wlb_pos</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" t="s">
+        <v>217</v>
+      </c>
+      <c r="B25" t="s">
+        <v>216</v>
+      </c>
+      <c r="C25" t="s">
+        <v>191</v>
+      </c>
+      <c r="D25" t="s">
+        <v>100</v>
+      </c>
+      <c r="J25" t="s">
+        <v>318</v>
+      </c>
+      <c r="K25" t="s">
+        <v>184</v>
+      </c>
+      <c r="L25" t="s">
+        <v>176</v>
+      </c>
+      <c r="M25" t="str">
+        <f t="shared" si="1"/>
+        <v>DI_P_wlb_sp</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" t="s">
+        <v>218</v>
+      </c>
+      <c r="B26" t="s">
+        <v>217</v>
+      </c>
+      <c r="C26" t="s">
+        <v>192</v>
+      </c>
+      <c r="D26" t="s">
+        <v>100</v>
+      </c>
+      <c r="J26" t="s">
+        <v>318</v>
+      </c>
+      <c r="K26" t="s">
+        <v>235</v>
+      </c>
+      <c r="L26" t="s">
+        <v>178</v>
+      </c>
+      <c r="M26" t="str">
+        <f t="shared" ref="M26:M37" si="2">_xlfn.CONCAT(J26,K26,L26)</f>
+        <v>DI_P_td_me</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" t="s">
+        <v>218</v>
+      </c>
+      <c r="C27" t="s">
+        <v>190</v>
+      </c>
+      <c r="D27" t="s">
+        <v>100</v>
+      </c>
+      <c r="J27" t="s">
+        <v>318</v>
+      </c>
+      <c r="K27" t="s">
+        <v>235</v>
+      </c>
+      <c r="L27" t="s">
+        <v>177</v>
+      </c>
+      <c r="M27" t="str">
+        <f t="shared" si="2"/>
+        <v>DI_P_td_acc</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" t="s">
+        <v>219</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>197</v>
+      </c>
+      <c r="D28" t="s">
+        <v>102</v>
+      </c>
+      <c r="J28" t="s">
+        <v>318</v>
+      </c>
+      <c r="K28" t="s">
+        <v>235</v>
+      </c>
+      <c r="L28" t="s">
+        <v>185</v>
+      </c>
+      <c r="M28" t="str">
+        <f t="shared" si="2"/>
+        <v>DI_P_td_pos</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" t="s">
+        <v>220</v>
+      </c>
+      <c r="B29" t="s">
+        <v>219</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>210</v>
+      </c>
+      <c r="J29" t="s">
+        <v>318</v>
+      </c>
+      <c r="K29" t="s">
+        <v>235</v>
+      </c>
+      <c r="L29" t="s">
+        <v>176</v>
+      </c>
+      <c r="M29" t="str">
+        <f t="shared" si="2"/>
+        <v>DI_P_td_sp</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" t="s">
+        <v>221</v>
+      </c>
+      <c r="B30" t="s">
+        <v>220</v>
+      </c>
+      <c r="C30" t="s">
+        <v>195</v>
+      </c>
+      <c r="D30" t="s">
+        <v>100</v>
+      </c>
+      <c r="J30" t="s">
+        <v>318</v>
+      </c>
+      <c r="K30" t="s">
+        <v>236</v>
+      </c>
+      <c r="L30" t="s">
+        <v>178</v>
+      </c>
+      <c r="M30" t="str">
+        <f t="shared" si="2"/>
+        <v>DI_P_esi_me</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" t="s">
+        <v>222</v>
+      </c>
+      <c r="B31" t="s">
+        <v>221</v>
+      </c>
+      <c r="C31" t="s">
+        <v>196</v>
+      </c>
+      <c r="D31" t="s">
+        <v>100</v>
+      </c>
+      <c r="J31" t="s">
+        <v>318</v>
+      </c>
+      <c r="K31" t="s">
+        <v>236</v>
+      </c>
+      <c r="L31" t="s">
+        <v>177</v>
+      </c>
+      <c r="M31" t="str">
+        <f t="shared" si="2"/>
+        <v>DI_P_esi_acc</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" t="s">
+        <v>222</v>
+      </c>
+      <c r="C32" t="s">
+        <v>194</v>
+      </c>
+      <c r="D32" t="s">
+        <v>100</v>
+      </c>
+      <c r="J32" t="s">
+        <v>318</v>
+      </c>
+      <c r="K32" t="s">
+        <v>236</v>
+      </c>
+      <c r="L32" t="s">
+        <v>185</v>
+      </c>
+      <c r="M32" t="str">
+        <f t="shared" si="2"/>
+        <v>DI_P_esi_pos</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" t="s">
+        <v>223</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" t="s">
+        <v>201</v>
+      </c>
+      <c r="D33" t="s">
+        <v>102</v>
+      </c>
+      <c r="J33" t="s">
+        <v>318</v>
+      </c>
+      <c r="K33" t="s">
+        <v>236</v>
+      </c>
+      <c r="L33" t="s">
+        <v>176</v>
+      </c>
+      <c r="M33" t="str">
+        <f t="shared" si="2"/>
+        <v>DI_P_esi_sp</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" t="s">
+        <v>224</v>
+      </c>
+      <c r="B34" t="s">
+        <v>223</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>210</v>
+      </c>
+      <c r="J34" t="s">
+        <v>318</v>
+      </c>
+      <c r="K34" t="s">
+        <v>237</v>
+      </c>
+      <c r="L34" t="s">
+        <v>178</v>
+      </c>
+      <c r="M34" t="str">
+        <f t="shared" si="2"/>
+        <v>DI_P_ld_me</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" t="s">
+        <v>225</v>
+      </c>
+      <c r="B35" t="s">
+        <v>224</v>
+      </c>
+      <c r="C35" t="s">
+        <v>199</v>
+      </c>
+      <c r="D35" t="s">
+        <v>100</v>
+      </c>
+      <c r="J35" t="s">
+        <v>318</v>
+      </c>
+      <c r="K35" t="s">
+        <v>237</v>
+      </c>
+      <c r="L35" t="s">
+        <v>177</v>
+      </c>
+      <c r="M35" t="str">
+        <f t="shared" si="2"/>
+        <v>DI_P_ld_acc</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" t="s">
+        <v>226</v>
+      </c>
+      <c r="B36" t="s">
+        <v>225</v>
+      </c>
+      <c r="C36" t="s">
+        <v>200</v>
+      </c>
+      <c r="D36" t="s">
+        <v>100</v>
+      </c>
+      <c r="J36" t="s">
+        <v>318</v>
+      </c>
+      <c r="K36" t="s">
+        <v>237</v>
+      </c>
+      <c r="L36" t="s">
+        <v>185</v>
+      </c>
+      <c r="M36" t="str">
+        <f t="shared" si="2"/>
+        <v>DI_P_ld_pos</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" t="s">
+        <v>226</v>
+      </c>
+      <c r="C37" t="s">
+        <v>198</v>
+      </c>
+      <c r="D37" t="s">
+        <v>100</v>
+      </c>
+      <c r="J37" t="s">
+        <v>318</v>
+      </c>
+      <c r="K37" t="s">
+        <v>237</v>
+      </c>
+      <c r="L37" t="s">
+        <v>176</v>
+      </c>
+      <c r="M37" t="str">
+        <f t="shared" si="2"/>
+        <v>DI_P_ld_sp</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" t="s">
+        <v>227</v>
+      </c>
+      <c r="B38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" t="s">
+        <v>205</v>
+      </c>
+      <c r="D38" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" t="s">
+        <v>228</v>
+      </c>
+      <c r="B39" t="s">
+        <v>227</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" t="s">
+        <v>229</v>
+      </c>
+      <c r="B40" t="s">
+        <v>228</v>
+      </c>
+      <c r="C40" t="s">
+        <v>203</v>
+      </c>
+      <c r="D40" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" t="s">
+        <v>230</v>
+      </c>
+      <c r="B41" t="s">
+        <v>229</v>
+      </c>
+      <c r="C41" t="s">
+        <v>204</v>
+      </c>
+      <c r="D41" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B42" t="s">
+        <v>230</v>
+      </c>
+      <c r="C42" t="s">
+        <v>202</v>
+      </c>
+      <c r="D42" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" t="s">
+        <v>231</v>
+      </c>
+      <c r="B43" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" t="s">
+        <v>209</v>
+      </c>
+      <c r="D43" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" t="s">
+        <v>232</v>
+      </c>
+      <c r="B44" t="s">
+        <v>231</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" t="s">
+        <v>233</v>
+      </c>
+      <c r="B45" t="s">
+        <v>232</v>
+      </c>
+      <c r="C45" t="s">
+        <v>207</v>
+      </c>
+      <c r="D45" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" t="s">
+        <v>234</v>
+      </c>
+      <c r="B46" t="s">
+        <v>233</v>
+      </c>
+      <c r="C46" t="s">
+        <v>208</v>
+      </c>
+      <c r="D46" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B47" t="s">
+        <v>234</v>
+      </c>
+      <c r="C47" t="s">
+        <v>206</v>
+      </c>
+      <c r="D47" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" t="s">
+        <v>258</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C48" t="s">
+        <v>245</v>
+      </c>
+      <c r="D48" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>259</v>
+      </c>
+      <c r="B49" t="s">
+        <v>258</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>260</v>
+      </c>
+      <c r="B50" t="s">
+        <v>259</v>
+      </c>
+      <c r="C50" t="s">
+        <v>243</v>
+      </c>
+      <c r="D50" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>261</v>
+      </c>
+      <c r="B51" t="s">
+        <v>260</v>
+      </c>
+      <c r="C51" t="s">
+        <v>244</v>
+      </c>
+      <c r="D51" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B52" t="s">
+        <v>261</v>
+      </c>
+      <c r="C52" t="s">
+        <v>242</v>
+      </c>
+      <c r="D52" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>262</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C53" t="s">
+        <v>241</v>
+      </c>
+      <c r="D53" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>263</v>
+      </c>
+      <c r="B54" t="s">
+        <v>262</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>264</v>
+      </c>
+      <c r="B55" t="s">
+        <v>263</v>
+      </c>
+      <c r="C55" t="s">
+        <v>239</v>
+      </c>
+      <c r="D55" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>265</v>
+      </c>
+      <c r="B56" t="s">
+        <v>264</v>
+      </c>
+      <c r="C56" t="s">
+        <v>240</v>
+      </c>
+      <c r="D56" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B57" t="s">
+        <v>265</v>
+      </c>
+      <c r="C57" t="s">
+        <v>238</v>
+      </c>
+      <c r="D57" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>266</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C58" t="s">
+        <v>249</v>
+      </c>
+      <c r="D58" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>267</v>
+      </c>
+      <c r="B59" t="s">
+        <v>266</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>268</v>
+      </c>
+      <c r="B60" t="s">
+        <v>267</v>
+      </c>
+      <c r="C60" t="s">
+        <v>247</v>
+      </c>
+      <c r="D60" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>269</v>
+      </c>
+      <c r="B61" t="s">
+        <v>268</v>
+      </c>
+      <c r="C61" t="s">
+        <v>248</v>
+      </c>
+      <c r="D61" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B62" t="s">
+        <v>269</v>
+      </c>
+      <c r="C62" t="s">
+        <v>246</v>
+      </c>
+      <c r="D62" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>270</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C63" t="s">
+        <v>253</v>
+      </c>
+      <c r="D63" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>271</v>
+      </c>
+      <c r="B64" t="s">
+        <v>270</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>272</v>
+      </c>
+      <c r="B65" t="s">
+        <v>271</v>
+      </c>
+      <c r="C65" t="s">
+        <v>251</v>
+      </c>
+      <c r="D65" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>273</v>
+      </c>
+      <c r="B66" t="s">
+        <v>272</v>
+      </c>
+      <c r="C66" t="s">
+        <v>252</v>
+      </c>
+      <c r="D66" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B67" t="s">
+        <v>273</v>
+      </c>
+      <c r="C67" t="s">
+        <v>250</v>
+      </c>
+      <c r="D67" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>274</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C68" t="s">
+        <v>257</v>
+      </c>
+      <c r="D68" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>275</v>
+      </c>
+      <c r="B69" t="s">
+        <v>274</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>276</v>
+      </c>
+      <c r="B70" t="s">
+        <v>275</v>
+      </c>
+      <c r="C70" t="s">
+        <v>255</v>
+      </c>
+      <c r="D70" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>277</v>
+      </c>
+      <c r="B71" t="s">
+        <v>276</v>
+      </c>
+      <c r="C71" t="s">
+        <v>256</v>
+      </c>
+      <c r="D71" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72" t="s">
+        <v>277</v>
+      </c>
+      <c r="C72" t="s">
+        <v>254</v>
+      </c>
+      <c r="D72" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>298</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C73" t="s">
+        <v>281</v>
+      </c>
+      <c r="D73" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>299</v>
+      </c>
+      <c r="B74" t="s">
+        <v>298</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>300</v>
+      </c>
+      <c r="B75" t="s">
+        <v>299</v>
+      </c>
+      <c r="C75" t="s">
+        <v>279</v>
+      </c>
+      <c r="D75" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>301</v>
+      </c>
+      <c r="B76" t="s">
+        <v>300</v>
+      </c>
+      <c r="C76" t="s">
+        <v>280</v>
+      </c>
+      <c r="D76" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>301</v>
+      </c>
+      <c r="C77" t="s">
+        <v>278</v>
+      </c>
+      <c r="D77" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>302</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C78" t="s">
+        <v>289</v>
+      </c>
+      <c r="D78" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>303</v>
+      </c>
+      <c r="B79" t="s">
+        <v>302</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>304</v>
+      </c>
+      <c r="B80" t="s">
+        <v>303</v>
+      </c>
+      <c r="C80" t="s">
+        <v>287</v>
+      </c>
+      <c r="D80" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>305</v>
+      </c>
+      <c r="B81" t="s">
+        <v>304</v>
+      </c>
+      <c r="C81" t="s">
+        <v>288</v>
+      </c>
+      <c r="D81" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B82" t="s">
+        <v>305</v>
+      </c>
+      <c r="C82" t="s">
+        <v>286</v>
+      </c>
+      <c r="D82" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>306</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C83" t="s">
+        <v>293</v>
+      </c>
+      <c r="D83" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>307</v>
+      </c>
+      <c r="B84" t="s">
+        <v>306</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>308</v>
+      </c>
+      <c r="B85" t="s">
+        <v>307</v>
+      </c>
+      <c r="C85" t="s">
+        <v>291</v>
+      </c>
+      <c r="D85" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>309</v>
+      </c>
+      <c r="B86" t="s">
+        <v>308</v>
+      </c>
+      <c r="C86" t="s">
+        <v>292</v>
+      </c>
+      <c r="D86" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B87" t="s">
+        <v>309</v>
+      </c>
+      <c r="C87" t="s">
+        <v>290</v>
+      </c>
+      <c r="D87" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>310</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C88" t="s">
+        <v>285</v>
+      </c>
+      <c r="D88" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>311</v>
+      </c>
+      <c r="B89" t="s">
+        <v>310</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>312</v>
+      </c>
+      <c r="B90" t="s">
+        <v>311</v>
+      </c>
+      <c r="C90" t="s">
+        <v>283</v>
+      </c>
+      <c r="D90" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>313</v>
+      </c>
+      <c r="B91" t="s">
+        <v>312</v>
+      </c>
+      <c r="C91" t="s">
+        <v>284</v>
+      </c>
+      <c r="D91" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B92" t="s">
+        <v>313</v>
+      </c>
+      <c r="C92" t="s">
+        <v>282</v>
+      </c>
+      <c r="D92" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>314</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C93" t="s">
+        <v>297</v>
+      </c>
+      <c r="D93" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>315</v>
+      </c>
+      <c r="B94" t="s">
+        <v>314</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>316</v>
+      </c>
+      <c r="B95" t="s">
+        <v>315</v>
+      </c>
+      <c r="C95" t="s">
+        <v>295</v>
+      </c>
+      <c r="D95" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>317</v>
+      </c>
+      <c r="B96" t="s">
+        <v>316</v>
+      </c>
+      <c r="C96" t="s">
+        <v>296</v>
+      </c>
+      <c r="D96" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B97" t="s">
+        <v>317</v>
+      </c>
+      <c r="C97" t="s">
+        <v>294</v>
+      </c>
+      <c r="D97" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>331</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C98" t="s">
+        <v>322</v>
+      </c>
+      <c r="D98" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>332</v>
+      </c>
+      <c r="B99" t="s">
+        <v>331</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>333</v>
+      </c>
+      <c r="B100" t="s">
+        <v>332</v>
+      </c>
+      <c r="C100" t="s">
+        <v>320</v>
+      </c>
+      <c r="D100" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>334</v>
+      </c>
+      <c r="B101" t="s">
+        <v>333</v>
+      </c>
+      <c r="C101" t="s">
+        <v>321</v>
+      </c>
+      <c r="D101" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B102" t="s">
+        <v>334</v>
+      </c>
+      <c r="C102" t="s">
+        <v>319</v>
+      </c>
+      <c r="D102" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>335</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C103" t="s">
+        <v>326</v>
+      </c>
+      <c r="D103" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>336</v>
+      </c>
+      <c r="B104" t="s">
+        <v>335</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>337</v>
+      </c>
+      <c r="B105" t="s">
+        <v>336</v>
+      </c>
+      <c r="C105" t="s">
+        <v>324</v>
+      </c>
+      <c r="D105" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>338</v>
+      </c>
+      <c r="B106" t="s">
+        <v>337</v>
+      </c>
+      <c r="C106" t="s">
+        <v>325</v>
+      </c>
+      <c r="D106" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B107" t="s">
+        <v>338</v>
+      </c>
+      <c r="C107" t="s">
+        <v>323</v>
+      </c>
+      <c r="D107" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>339</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C108" t="s">
+        <v>330</v>
+      </c>
+      <c r="D108" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>340</v>
+      </c>
+      <c r="B109" t="s">
+        <v>339</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="D109" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>341</v>
+      </c>
+      <c r="B110" t="s">
+        <v>340</v>
+      </c>
+      <c r="C110" t="s">
+        <v>328</v>
+      </c>
+      <c r="D110" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>342</v>
+      </c>
+      <c r="B111" t="s">
+        <v>341</v>
+      </c>
+      <c r="C111" t="s">
+        <v>329</v>
+      </c>
+      <c r="D111" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B112" t="s">
+        <v>342</v>
+      </c>
+      <c r="C112" t="s">
+        <v>327</v>
+      </c>
+      <c r="D112" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D113" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D114" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D115" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D116" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C117" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="D117" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D118" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C119" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="6" t="s">
+      <c r="D119" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C120" s="5">
+        <v>0</v>
+      </c>
+      <c r="D120" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D121" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C122" s="3">
+        <v>0</v>
+      </c>
+      <c r="D122" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D123" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C124" s="3">
+        <v>0</v>
+      </c>
+      <c r="D124" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D125" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C127" s="5">
+        <v>0</v>
+      </c>
+      <c r="D127" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D128" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D129" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D130" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D131" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D132" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D133" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D134" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D135" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D136" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D137" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D138" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B139" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C139" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D139" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="6" t="s">
+    <row r="140" spans="1:4">
+      <c r="A140" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D140" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D141" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D142" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D143" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D144" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D145" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B146" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C146" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D146" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D147" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D148" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="6">
-        <v>0</v>
-      </c>
-      <c r="D14" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D15" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D16" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D17" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="D18" t="s">
-        <v>108</v>
-      </c>
-      <c r="E18">
-        <v>0.33</v>
-      </c>
-      <c r="F18">
-        <v>0.71</v>
-      </c>
-      <c r="G18">
-        <v>0.2</v>
-      </c>
-      <c r="H18">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" t="s">
-        <v>108</v>
-      </c>
-      <c r="E19">
-        <v>0.3</v>
-      </c>
-      <c r="F19">
-        <v>0.19</v>
-      </c>
-      <c r="G19">
-        <v>0.5</v>
-      </c>
-      <c r="H19">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" t="s">
-        <v>108</v>
-      </c>
-      <c r="E20">
-        <v>0.04</v>
-      </c>
-      <c r="F20">
-        <v>0.5</v>
-      </c>
-      <c r="G20">
-        <v>0.25</v>
-      </c>
-      <c r="H20">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" t="s">
-        <v>108</v>
-      </c>
-      <c r="E21">
-        <v>0.21</v>
-      </c>
-      <c r="F21">
-        <v>0.23200000000000001</v>
-      </c>
-      <c r="G21">
-        <v>0.13700000000000001</v>
-      </c>
-      <c r="H21">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" t="s">
-        <v>108</v>
-      </c>
-      <c r="E22">
-        <v>0.02</v>
-      </c>
-      <c r="F22">
-        <v>0.92</v>
-      </c>
-      <c r="G22">
-        <v>0.8</v>
-      </c>
-      <c r="H22">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" t="s">
-        <v>108</v>
-      </c>
-      <c r="E23">
-        <v>0.38</v>
-      </c>
-      <c r="F23">
-        <v>0.24</v>
-      </c>
-      <c r="G23">
-        <v>0.4</v>
-      </c>
-      <c r="H23">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="4"/>
-      <c r="D24" t="s">
-        <v>108</v>
-      </c>
-      <c r="E24">
-        <v>0.95799999999999996</v>
-      </c>
-      <c r="F24">
-        <v>0.24</v>
-      </c>
-      <c r="G24">
-        <v>0.4</v>
-      </c>
-      <c r="H24">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="4"/>
-      <c r="D25" t="s">
-        <v>108</v>
-      </c>
-      <c r="E25">
-        <v>0.5</v>
-      </c>
-      <c r="F25">
-        <v>0.19</v>
-      </c>
-      <c r="G25">
-        <v>0.5</v>
-      </c>
-      <c r="H25">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="4"/>
-      <c r="D26" t="s">
-        <v>108</v>
-      </c>
-      <c r="E26">
-        <v>0.19</v>
-      </c>
-      <c r="F26">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="G26">
-        <v>0.8</v>
-      </c>
-      <c r="H26">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C27" s="4"/>
-      <c r="D27" t="s">
-        <v>108</v>
-      </c>
-      <c r="E27">
-        <v>0.33</v>
-      </c>
-      <c r="F27">
-        <v>0.65</v>
-      </c>
-      <c r="G27">
-        <v>0.7</v>
-      </c>
-      <c r="H27">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="4"/>
-      <c r="D28" t="s">
-        <v>108</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0.73</v>
-      </c>
-      <c r="G28">
-        <v>0.7</v>
-      </c>
-      <c r="H28">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="6"/>
-      <c r="D29" t="s">
-        <v>108</v>
-      </c>
-      <c r="E29">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="F29">
-        <v>0.19</v>
-      </c>
-      <c r="G29">
-        <v>0.5</v>
-      </c>
-      <c r="H29">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="6"/>
-      <c r="D30" t="s">
-        <v>108</v>
-      </c>
-      <c r="E30">
-        <v>0.39</v>
-      </c>
-      <c r="F30">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="G30">
-        <v>0.8</v>
-      </c>
-      <c r="H30">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C31" s="6"/>
-      <c r="D31" t="s">
-        <v>108</v>
-      </c>
-      <c r="E31">
-        <v>0.1</v>
-      </c>
-      <c r="F31">
-        <v>0.65</v>
-      </c>
-      <c r="G31">
-        <v>0.7</v>
-      </c>
-      <c r="H31">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="6"/>
-      <c r="D32" t="s">
-        <v>108</v>
-      </c>
-      <c r="E32">
-        <v>0.64</v>
-      </c>
-      <c r="F32" s="2">
-        <v>0.24</v>
-      </c>
-      <c r="G32" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="H32" s="2">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33" s="6"/>
-      <c r="D33" t="s">
-        <v>108</v>
-      </c>
-      <c r="E33">
-        <v>0.22</v>
-      </c>
-      <c r="F33">
-        <v>0.73</v>
-      </c>
-      <c r="G33">
-        <v>0.7</v>
-      </c>
-      <c r="H33">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" s="6"/>
-      <c r="D34" t="s">
-        <v>108</v>
-      </c>
-      <c r="E34">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F34">
-        <v>0.71</v>
-      </c>
-      <c r="G34">
-        <v>0.2</v>
-      </c>
-      <c r="H34">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" s="6"/>
-      <c r="D35" t="s">
-        <v>108</v>
-      </c>
-      <c r="E35">
-        <v>0.1</v>
-      </c>
-      <c r="F35">
-        <v>0.5</v>
-      </c>
-      <c r="G35">
-        <v>0.25</v>
-      </c>
-      <c r="H35">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="6"/>
-      <c r="D36" t="s">
-        <v>108</v>
-      </c>
-      <c r="E36">
-        <v>0.25</v>
-      </c>
-      <c r="F36">
-        <v>0.23200000000000001</v>
-      </c>
-      <c r="G36">
-        <v>0.13700000000000001</v>
-      </c>
-      <c r="H36">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D37" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D38" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D39" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D40" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D41" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D42" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D43" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C44" s="6">
-        <v>0</v>
-      </c>
-      <c r="D44" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D45" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C46" s="4">
-        <v>0</v>
-      </c>
-      <c r="D46" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D47" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C48" s="4">
-        <v>0</v>
-      </c>
-      <c r="D48" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D49" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C51" s="6">
-        <v>0</v>
-      </c>
-      <c r="D51" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D52" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D53" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D54" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D55" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D56" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D57" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="4" t="s">
+    <row r="149" spans="1:4">
+      <c r="A149" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B149" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D58" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D59" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D60" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="4" t="s">
+      <c r="C149" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D61" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D62" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D63" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D64" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D65" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D66" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D67" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D68" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D69" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D70" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="4" t="s">
+      <c r="D149" t="s">
         <v>102</v>
       </c>
-      <c r="B71" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D71" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D72" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D73" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="4"/>
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="4"/>
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="4"/>
-      <c r="B76" s="4"/>
-      <c r="C76" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
@@ -3736,7 +6199,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2">
